--- a/Results/150 model - 10 speed.xlsx
+++ b/Results/150 model - 10 speed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong\Documents\GitHub\Bike-Sharing-Simulation\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BEE976-435F-469A-B055-DB777F53904F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4097BB-42BB-4FD0-94D0-0898FCF7C455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{0FFBF88E-C147-464B-AD57-C6FEEB8E8E56}"/>
+    <workbookView xWindow="7860" yWindow="3000" windowWidth="30876" windowHeight="12120" xr2:uid="{0FFBF88E-C147-464B-AD57-C6FEEB8E8E56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9B0914-62A0-4B3D-9B8B-76913CA6E621}">
   <dimension ref="A1:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>3993.37</v>
+        <v>3993.3750000000005</v>
       </c>
       <c r="C2" s="1">
-        <v>399.33699999999999</v>
+        <v>479.20499999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -885,13 +885,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>586.28</v>
+        <v>586.27499999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>58.628</v>
+        <v>70.352999999999994</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -899,13 +899,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>3880.99</v>
+        <v>3880.9916666666668</v>
       </c>
       <c r="C4" s="1">
-        <v>388.09899999999999</v>
+        <v>465.71899999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -913,13 +913,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>4479.18</v>
+        <v>4479.1750000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>447.91800000000001</v>
+        <v>537.50099999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -927,13 +927,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1633</v>
+        <v>1632.9916666666668</v>
       </c>
       <c r="C6" s="1">
-        <v>163.30000000000001</v>
+        <v>195.959</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -941,13 +941,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>2084.7199999999998</v>
+        <v>2084.7083333333335</v>
       </c>
       <c r="C7" s="1">
-        <v>208.47200000000001</v>
+        <v>250.16499999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -955,13 +955,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>2723.46</v>
+        <v>2723.4583333333335</v>
       </c>
       <c r="C8" s="1">
-        <v>272.346</v>
+        <v>326.815</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -969,13 +969,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>3992.19</v>
+        <v>3992.1833333333334</v>
       </c>
       <c r="C9" s="1">
-        <v>399.21899999999999</v>
+        <v>479.06200000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -983,13 +983,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8289.0499999999993</v>
+        <v>8289.0583333333343</v>
       </c>
       <c r="C10" s="1">
-        <v>828.90499999999997</v>
+        <v>994.68700000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -997,13 +997,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>3365.23</v>
+        <v>3365.2333333333336</v>
       </c>
       <c r="C11" s="1">
-        <v>336.52300000000002</v>
+        <v>403.82799999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1011,13 +1011,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>2145.33</v>
+        <v>2145.3249999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>214.53299999999999</v>
+        <v>257.43900000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1025,13 +1025,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>3829.36</v>
+        <v>3829.3666666666668</v>
       </c>
       <c r="C13" s="1">
-        <v>382.93599999999998</v>
+        <v>459.524</v>
       </c>
       <c r="D13" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1039,13 +1039,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1046.75</v>
+        <v>1046.7416666666668</v>
       </c>
       <c r="C14" s="1">
-        <v>104.675</v>
+        <v>125.60899999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1053,13 +1053,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>3789.8</v>
+        <v>3789.8083333333334</v>
       </c>
       <c r="C15" s="1">
-        <v>378.98</v>
+        <v>454.77699999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1067,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>3405.71</v>
+        <v>3405.7083333333335</v>
       </c>
       <c r="C16" s="1">
-        <v>340.57100000000003</v>
+        <v>408.685</v>
       </c>
       <c r="D16" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1081,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>541.84</v>
+        <v>541.8416666666667</v>
       </c>
       <c r="C17" s="1">
-        <v>54.183999999999997</v>
+        <v>65.021000000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1095,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>2001.34</v>
+        <v>2001.3416666666667</v>
       </c>
       <c r="C18" s="1">
-        <v>200.13399999999999</v>
+        <v>240.161</v>
       </c>
       <c r="D18" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1112,10 +1112,10 @@
         <v>1259.9000000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>125.99</v>
+        <v>151.18799999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1123,13 +1123,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>2032.9</v>
+        <v>2032.9083333333335</v>
       </c>
       <c r="C20" s="1">
-        <v>203.29</v>
+        <v>243.94900000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1140,10 +1140,10 @@
         <v>3275.2</v>
       </c>
       <c r="C21" s="1">
-        <v>327.52</v>
+        <v>393.024</v>
       </c>
       <c r="D21" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1151,13 +1151,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1255.3900000000001</v>
+        <v>1255.4000000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>125.539</v>
+        <v>150.648</v>
       </c>
       <c r="D22" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1165,13 +1165,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>2847.39</v>
+        <v>2847.3833333333337</v>
       </c>
       <c r="C23" s="1">
-        <v>284.73899999999998</v>
+        <v>341.68599999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1179,13 +1179,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>6514.23</v>
+        <v>6514.2333333333336</v>
       </c>
       <c r="C24" s="1">
-        <v>651.423</v>
+        <v>781.70799999999997</v>
       </c>
       <c r="D24" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1193,13 +1193,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>5529.32</v>
+        <v>5529.3166666666666</v>
       </c>
       <c r="C25" s="1">
-        <v>552.93200000000002</v>
+        <v>663.51800000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1207,13 +1207,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>6512.09</v>
+        <v>6512.0833333333339</v>
       </c>
       <c r="C26" s="1">
-        <v>651.20899999999995</v>
+        <v>781.45</v>
       </c>
       <c r="D26" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1221,13 +1221,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>2507.64</v>
+        <v>2507.6416666666669</v>
       </c>
       <c r="C27" s="1">
-        <v>250.76400000000001</v>
+        <v>300.91699999999997</v>
       </c>
       <c r="D27" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1235,13 +1235,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>864.01</v>
+        <v>864.00833333333333</v>
       </c>
       <c r="C28" s="1">
-        <v>86.400999999999996</v>
+        <v>103.681</v>
       </c>
       <c r="D28" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1249,13 +1249,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>982.93</v>
+        <v>982.93333333333339</v>
       </c>
       <c r="C29" s="1">
-        <v>98.293000000000006</v>
+        <v>117.952</v>
       </c>
       <c r="D29" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1263,13 +1263,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>1.29</v>
+        <v>1.2916666666666667</v>
       </c>
       <c r="C30" s="1">
-        <v>0.129</v>
+        <v>0.155</v>
       </c>
       <c r="D30" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1277,13 +1277,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>1298.98</v>
+        <v>1298.9749999999999</v>
       </c>
       <c r="C31" s="1">
-        <v>129.898</v>
+        <v>155.87700000000001</v>
       </c>
       <c r="D31" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1291,13 +1291,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>1385.42</v>
+        <v>1385.4166666666667</v>
       </c>
       <c r="C32" s="1">
-        <v>138.542</v>
+        <v>166.25</v>
       </c>
       <c r="D32" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1305,13 +1305,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>2742.81</v>
+        <v>2742.8166666666671</v>
       </c>
       <c r="C33" s="1">
-        <v>274.28100000000001</v>
+        <v>329.13799999999998</v>
       </c>
       <c r="D33" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1319,13 +1319,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>6932.41</v>
+        <v>6932.4083333333338</v>
       </c>
       <c r="C34" s="1">
-        <v>693.24099999999999</v>
+        <v>831.88900000000001</v>
       </c>
       <c r="D34" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1333,13 +1333,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>8242.0300000000007</v>
+        <v>8242.0333333333347</v>
       </c>
       <c r="C35" s="1">
-        <v>824.20299999999997</v>
+        <v>989.04399999999998</v>
       </c>
       <c r="D35" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1347,13 +1347,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>845.29</v>
+        <v>845.29166666666674</v>
       </c>
       <c r="C36" s="1">
-        <v>84.528999999999996</v>
+        <v>101.435</v>
       </c>
       <c r="D36" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1361,13 +1361,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>2063.39</v>
+        <v>2063.3916666666669</v>
       </c>
       <c r="C37" s="1">
-        <v>206.339</v>
+        <v>247.607</v>
       </c>
       <c r="D37" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1375,13 +1375,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>1376.15</v>
+        <v>1376.1583333333335</v>
       </c>
       <c r="C38" s="1">
-        <v>137.61500000000001</v>
+        <v>165.13900000000001</v>
       </c>
       <c r="D38" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1389,13 +1389,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>1597.5</v>
+        <v>1597.4916666666668</v>
       </c>
       <c r="C39" s="1">
-        <v>159.75</v>
+        <v>191.69900000000001</v>
       </c>
       <c r="D39" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1403,13 +1403,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>2160.67</v>
+        <v>2160.666666666667</v>
       </c>
       <c r="C40" s="1">
-        <v>216.06700000000001</v>
+        <v>259.27999999999997</v>
       </c>
       <c r="D40" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1417,13 +1417,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>1426.91</v>
+        <v>1426.9083333333335</v>
       </c>
       <c r="C41" s="1">
-        <v>142.691</v>
+        <v>171.22900000000001</v>
       </c>
       <c r="D41" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1431,13 +1431,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>2144.61</v>
+        <v>2144.6083333333336</v>
       </c>
       <c r="C42" s="1">
-        <v>214.46100000000001</v>
+        <v>257.35300000000001</v>
       </c>
       <c r="D42" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1445,13 +1445,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>4513.38</v>
+        <v>4513.375</v>
       </c>
       <c r="C43" s="1">
-        <v>451.33800000000002</v>
+        <v>541.60500000000002</v>
       </c>
       <c r="D43" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1459,13 +1459,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>3511.57</v>
+        <v>3511.5750000000003</v>
       </c>
       <c r="C44" s="1">
-        <v>351.15699999999998</v>
+        <v>421.38900000000001</v>
       </c>
       <c r="D44" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1473,13 +1473,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>1719.93</v>
+        <v>1719.9250000000002</v>
       </c>
       <c r="C45" s="1">
-        <v>171.99299999999999</v>
+        <v>206.39099999999999</v>
       </c>
       <c r="D45" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1490,10 +1490,10 @@
         <v>2453.35</v>
       </c>
       <c r="C46" s="1">
-        <v>245.33500000000001</v>
+        <v>294.40199999999999</v>
       </c>
       <c r="D46" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1501,13 +1501,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>2718.62</v>
+        <v>2718.625</v>
       </c>
       <c r="C47" s="1">
-        <v>271.86200000000002</v>
+        <v>326.23500000000001</v>
       </c>
       <c r="D47" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1515,13 +1515,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>10426</v>
+        <v>10426.008333333333</v>
       </c>
       <c r="C48" s="1">
-        <v>1042.5999999999999</v>
+        <v>1251.1210000000001</v>
       </c>
       <c r="D48" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1529,13 +1529,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>1508.42</v>
+        <v>1508.4083333333335</v>
       </c>
       <c r="C49" s="1">
-        <v>150.84200000000001</v>
+        <v>181.00899999999999</v>
       </c>
       <c r="D49" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1543,13 +1543,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>15.56</v>
+        <v>15.566666666666668</v>
       </c>
       <c r="C50" s="1">
-        <v>1.556</v>
+        <v>1.8680000000000001</v>
       </c>
       <c r="D50" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1560,10 +1560,10 @@
         <v>671.7</v>
       </c>
       <c r="C51" s="1">
-        <v>67.17</v>
+        <v>80.603999999999999</v>
       </c>
       <c r="D51" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1571,13 +1571,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>2356.06</v>
+        <v>2356.0583333333334</v>
       </c>
       <c r="C52" s="1">
-        <v>235.60599999999999</v>
+        <v>282.72699999999998</v>
       </c>
       <c r="D52" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1585,13 +1585,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>13.31</v>
+        <v>13.308333333333334</v>
       </c>
       <c r="C53" s="1">
-        <v>1.331</v>
+        <v>1.597</v>
       </c>
       <c r="D53" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1599,13 +1599,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>1116.72</v>
+        <v>1116.7166666666667</v>
       </c>
       <c r="C54" s="1">
-        <v>111.672</v>
+        <v>134.006</v>
       </c>
       <c r="D54" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1613,13 +1613,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>2171.15</v>
+        <v>2171.1416666666669</v>
       </c>
       <c r="C55" s="1">
-        <v>217.11500000000001</v>
+        <v>260.53699999999998</v>
       </c>
       <c r="D55" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1627,13 +1627,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>7668.7</v>
+        <v>7668.7000000000007</v>
       </c>
       <c r="C56" s="1">
-        <v>766.87</v>
+        <v>920.24400000000003</v>
       </c>
       <c r="D56" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1641,13 +1641,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>1417.61</v>
+        <v>1417.6083333333336</v>
       </c>
       <c r="C57" s="1">
-        <v>141.761</v>
+        <v>170.113</v>
       </c>
       <c r="D57" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1655,13 +1655,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>2229.7800000000002</v>
+        <v>2229.7833333333333</v>
       </c>
       <c r="C58" s="1">
-        <v>222.97800000000001</v>
+        <v>267.57400000000001</v>
       </c>
       <c r="D58" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1669,13 +1669,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>1683.77</v>
+        <v>1683.7750000000003</v>
       </c>
       <c r="C59" s="1">
-        <v>168.37700000000001</v>
+        <v>202.053</v>
       </c>
       <c r="D59" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1683,13 +1683,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>1607.65</v>
+        <v>1607.6416666666667</v>
       </c>
       <c r="C60" s="1">
-        <v>160.76499999999999</v>
+        <v>192.917</v>
       </c>
       <c r="D60" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1697,13 +1697,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>1.74</v>
+        <v>1.7333333333333334</v>
       </c>
       <c r="C61" s="1">
-        <v>0.17399999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="D61" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1711,13 +1711,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>397.14</v>
+        <v>397.14166666666671</v>
       </c>
       <c r="C62" s="1">
-        <v>39.713999999999999</v>
+        <v>47.656999999999996</v>
       </c>
       <c r="D62" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1725,13 +1725,13 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>2.81</v>
+        <v>2.8166666666666669</v>
       </c>
       <c r="C63" s="1">
-        <v>0.28100000000000003</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="D63" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1739,13 +1739,13 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>9.8699999999999992</v>
+        <v>9.875</v>
       </c>
       <c r="C64" s="1">
-        <v>0.98699999999999999</v>
+        <v>1.1850000000000001</v>
       </c>
       <c r="D64" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1753,13 +1753,13 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>16.8</v>
+        <v>16.808333333333337</v>
       </c>
       <c r="C65" s="1">
-        <v>1.68</v>
+        <v>2.0169999999999999</v>
       </c>
       <c r="D65" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1767,13 +1767,13 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>6832.17</v>
+        <v>6832.1750000000011</v>
       </c>
       <c r="C66" s="1">
-        <v>683.21699999999998</v>
+        <v>819.86099999999999</v>
       </c>
       <c r="D66" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1781,13 +1781,13 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>1314.93</v>
+        <v>1314.9333333333334</v>
       </c>
       <c r="C67" s="1">
-        <v>131.49299999999999</v>
+        <v>157.792</v>
       </c>
       <c r="D67" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1795,13 +1795,13 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>1387.65</v>
+        <v>1387.6416666666667</v>
       </c>
       <c r="C68" s="1">
-        <v>138.76499999999999</v>
+        <v>166.517</v>
       </c>
       <c r="D68" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1809,13 +1809,13 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>1593.76</v>
+        <v>1593.7583333333334</v>
       </c>
       <c r="C69" s="1">
-        <v>159.376</v>
+        <v>191.251</v>
       </c>
       <c r="D69" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1823,13 +1823,13 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>747.94</v>
+        <v>747.93333333333339</v>
       </c>
       <c r="C70" s="1">
-        <v>74.793999999999997</v>
+        <v>89.751999999999995</v>
       </c>
       <c r="D70" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1837,13 +1837,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>16884.45</v>
+        <v>16884.458333333336</v>
       </c>
       <c r="C71" s="1">
-        <v>1688.4449999999999</v>
+        <v>2026.135</v>
       </c>
       <c r="D71" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1851,13 +1851,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>4152.3</v>
+        <v>4152.291666666667</v>
       </c>
       <c r="C72" s="1">
-        <v>415.23</v>
+        <v>498.27499999999998</v>
       </c>
       <c r="D72" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1865,13 +1865,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>1475.48</v>
+        <v>1475.4833333333336</v>
       </c>
       <c r="C73" s="1">
-        <v>147.548</v>
+        <v>177.05799999999999</v>
       </c>
       <c r="D73" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1882,10 +1882,10 @@
         <v>1528.4</v>
       </c>
       <c r="C74" s="1">
-        <v>152.84</v>
+        <v>183.40799999999999</v>
       </c>
       <c r="D74" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1893,13 +1893,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>1568.04</v>
+        <v>1568.0333333333335</v>
       </c>
       <c r="C75" s="1">
-        <v>156.804</v>
+        <v>188.16399999999999</v>
       </c>
       <c r="D75" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1907,13 +1907,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>3706.13</v>
+        <v>3706.1416666666669</v>
       </c>
       <c r="C76" s="1">
-        <v>370.613</v>
+        <v>444.73700000000002</v>
       </c>
       <c r="D76" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1921,13 +1921,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>5972.08</v>
+        <v>5972.0833333333339</v>
       </c>
       <c r="C77" s="1">
-        <v>597.20799999999997</v>
+        <v>716.65</v>
       </c>
       <c r="D77" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1935,13 +1935,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>16525.34</v>
+        <v>16525.333333333336</v>
       </c>
       <c r="C78" s="1">
-        <v>1652.5340000000001</v>
+        <v>1983.04</v>
       </c>
       <c r="D78" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1949,13 +1949,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>7085.57</v>
+        <v>7085.5666666666666</v>
       </c>
       <c r="C79" s="1">
-        <v>708.55700000000002</v>
+        <v>850.26800000000003</v>
       </c>
       <c r="D79" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1963,13 +1963,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>640.89</v>
+        <v>640.88333333333333</v>
       </c>
       <c r="C80" s="1">
-        <v>64.088999999999999</v>
+        <v>76.906000000000006</v>
       </c>
       <c r="D80" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1977,13 +1977,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>677.71</v>
+        <v>677.7166666666667</v>
       </c>
       <c r="C81" s="1">
-        <v>67.771000000000001</v>
+        <v>81.325999999999993</v>
       </c>
       <c r="D81" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1991,13 +1991,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>716.69</v>
+        <v>716.7</v>
       </c>
       <c r="C82" s="1">
-        <v>71.668999999999997</v>
+        <v>86.004000000000005</v>
       </c>
       <c r="D82" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2005,13 +2005,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>13.82</v>
+        <v>13.808333333333334</v>
       </c>
       <c r="C83" s="1">
-        <v>1.3819999999999999</v>
+        <v>1.657</v>
       </c>
       <c r="D83" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2022,10 +2022,10 @@
         <v>359.55</v>
       </c>
       <c r="C84" s="1">
-        <v>35.954999999999998</v>
+        <v>43.146000000000001</v>
       </c>
       <c r="D84" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2033,13 +2033,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>1065.6099999999999</v>
+        <v>1065.6083333333336</v>
       </c>
       <c r="C85" s="1">
-        <v>106.56100000000001</v>
+        <v>127.873</v>
       </c>
       <c r="D85" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2047,13 +2047,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>533.91999999999996</v>
+        <v>533.91666666666674</v>
       </c>
       <c r="C86" s="1">
-        <v>53.392000000000003</v>
+        <v>64.069999999999993</v>
       </c>
       <c r="D86" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2061,13 +2061,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>561.32000000000005</v>
+        <v>561.32500000000005</v>
       </c>
       <c r="C87" s="1">
-        <v>56.131999999999998</v>
+        <v>67.358999999999995</v>
       </c>
       <c r="D87" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2078,10 +2078,10 @@
         <v>3254.25</v>
       </c>
       <c r="C88" s="1">
-        <v>325.42500000000001</v>
+        <v>390.51</v>
       </c>
       <c r="D88" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2092,10 +2092,10 @@
         <v>5823.85</v>
       </c>
       <c r="C89" s="1">
-        <v>582.38499999999999</v>
+        <v>698.86199999999997</v>
       </c>
       <c r="D89" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2103,13 +2103,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>864.75</v>
+        <v>864.75000000000011</v>
       </c>
       <c r="C90" s="1">
-        <v>86.474999999999994</v>
+        <v>103.77</v>
       </c>
       <c r="D90" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2117,13 +2117,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>62.87</v>
+        <v>62.875000000000007</v>
       </c>
       <c r="C91" s="1">
-        <v>6.2869999999999999</v>
+        <v>7.5449999999999999</v>
       </c>
       <c r="D91" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2131,13 +2131,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>866.71</v>
+        <v>866.7166666666667</v>
       </c>
       <c r="C92" s="1">
-        <v>86.671000000000006</v>
+        <v>104.006</v>
       </c>
       <c r="D92" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2145,13 +2145,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>1511.35</v>
+        <v>1511.3416666666667</v>
       </c>
       <c r="C93" s="1">
-        <v>151.13499999999999</v>
+        <v>181.36099999999999</v>
       </c>
       <c r="D93" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2159,13 +2159,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>1101.19</v>
+        <v>1101.1916666666668</v>
       </c>
       <c r="C94" s="1">
-        <v>110.119</v>
+        <v>132.143</v>
       </c>
       <c r="D94" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2173,13 +2173,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>685.49</v>
+        <v>685.5</v>
       </c>
       <c r="C95" s="1">
-        <v>68.549000000000007</v>
+        <v>82.26</v>
       </c>
       <c r="D95" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2187,13 +2187,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>6871.71</v>
+        <v>6871.7000000000007</v>
       </c>
       <c r="C96" s="1">
-        <v>687.17100000000005</v>
+        <v>824.60400000000004</v>
       </c>
       <c r="D96" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2201,13 +2201,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>6697.48</v>
+        <v>6697.4750000000013</v>
       </c>
       <c r="C97" s="1">
-        <v>669.74800000000005</v>
+        <v>803.697</v>
       </c>
       <c r="D97" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2215,13 +2215,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>1248.42</v>
+        <v>1248.425</v>
       </c>
       <c r="C98" s="1">
-        <v>124.842</v>
+        <v>149.81100000000001</v>
       </c>
       <c r="D98" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2229,13 +2229,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>2433.2600000000002</v>
+        <v>2433.25</v>
       </c>
       <c r="C99" s="1">
-        <v>243.32599999999999</v>
+        <v>291.99</v>
       </c>
       <c r="D99" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2243,13 +2243,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>827.46</v>
+        <v>827.45833333333337</v>
       </c>
       <c r="C100" s="1">
-        <v>82.745999999999995</v>
+        <v>99.295000000000002</v>
       </c>
       <c r="D100" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2257,13 +2257,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>2974.09</v>
+        <v>2974.0833333333335</v>
       </c>
       <c r="C101" s="1">
-        <v>297.40899999999999</v>
+        <v>356.89</v>
       </c>
       <c r="D101" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2271,13 +2271,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>1957.06</v>
+        <v>1957.0583333333334</v>
       </c>
       <c r="C102" s="1">
-        <v>195.70599999999999</v>
+        <v>234.84700000000001</v>
       </c>
       <c r="D102" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2285,13 +2285,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="1">
-        <v>4926.4399999999996</v>
+        <v>4926.4333333333343</v>
       </c>
       <c r="C103" s="1">
-        <v>492.64400000000001</v>
+        <v>591.17200000000003</v>
       </c>
       <c r="D103" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2299,13 +2299,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="1">
-        <v>5691.59</v>
+        <v>5691.5833333333339</v>
       </c>
       <c r="C104" s="1">
-        <v>569.15899999999999</v>
+        <v>682.99</v>
       </c>
       <c r="D104" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2313,13 +2313,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="1">
-        <v>3622.69</v>
+        <v>3622.6833333333334</v>
       </c>
       <c r="C105" s="1">
-        <v>362.26900000000001</v>
+        <v>434.72199999999998</v>
       </c>
       <c r="D105" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2327,13 +2327,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="1">
-        <v>1539.52</v>
+        <v>1539.5166666666667</v>
       </c>
       <c r="C106" s="1">
-        <v>153.952</v>
+        <v>184.74199999999999</v>
       </c>
       <c r="D106" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2341,13 +2341,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="1">
-        <v>3880.27</v>
+        <v>3880.2666666666669</v>
       </c>
       <c r="C107" s="1">
-        <v>388.02699999999999</v>
+        <v>465.63200000000001</v>
       </c>
       <c r="D107" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2355,13 +2355,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="1">
-        <v>2949.11</v>
+        <v>2949.1083333333336</v>
       </c>
       <c r="C108" s="1">
-        <v>294.911</v>
+        <v>353.89299999999997</v>
       </c>
       <c r="D108" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2369,13 +2369,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="1">
-        <v>505.05</v>
+        <v>505.04166666666669</v>
       </c>
       <c r="C109" s="1">
-        <v>50.505000000000003</v>
+        <v>60.604999999999997</v>
       </c>
       <c r="D109" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2383,13 +2383,13 @@
         <v>108</v>
       </c>
       <c r="B110" s="1">
-        <v>584.41999999999996</v>
+        <v>584.42499999999995</v>
       </c>
       <c r="C110" s="1">
-        <v>58.442</v>
+        <v>70.131</v>
       </c>
       <c r="D110" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2397,13 +2397,13 @@
         <v>109</v>
       </c>
       <c r="B111" s="1">
-        <v>4585.3900000000003</v>
+        <v>4585.3916666666673</v>
       </c>
       <c r="C111" s="1">
-        <v>458.53899999999999</v>
+        <v>550.24699999999996</v>
       </c>
       <c r="D111" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2414,10 +2414,10 @@
         <v>3261.35</v>
       </c>
       <c r="C112" s="1">
-        <v>326.13499999999999</v>
+        <v>391.36200000000002</v>
       </c>
       <c r="D112" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2425,13 +2425,13 @@
         <v>111</v>
       </c>
       <c r="B113" s="1">
-        <v>6225.54</v>
+        <v>6225.5333333333338</v>
       </c>
       <c r="C113" s="1">
-        <v>622.55399999999997</v>
+        <v>747.06399999999996</v>
       </c>
       <c r="D113" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2439,13 +2439,13 @@
         <v>112</v>
       </c>
       <c r="B114" s="1">
-        <v>1950.11</v>
+        <v>1950.1083333333336</v>
       </c>
       <c r="C114" s="1">
-        <v>195.011</v>
+        <v>234.01300000000001</v>
       </c>
       <c r="D114" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2453,13 +2453,13 @@
         <v>113</v>
       </c>
       <c r="B115" s="1">
-        <v>2863.11</v>
+        <v>2863.1083333333336</v>
       </c>
       <c r="C115" s="1">
-        <v>286.31099999999998</v>
+        <v>343.57299999999998</v>
       </c>
       <c r="D115" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2467,13 +2467,13 @@
         <v>114</v>
       </c>
       <c r="B116" s="1">
-        <v>1849.31</v>
+        <v>1849.3083333333334</v>
       </c>
       <c r="C116" s="1">
-        <v>184.93100000000001</v>
+        <v>221.917</v>
       </c>
       <c r="D116" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2481,13 +2481,13 @@
         <v>115</v>
       </c>
       <c r="B117" s="1">
-        <v>11.51</v>
+        <v>11.508333333333335</v>
       </c>
       <c r="C117" s="1">
-        <v>1.151</v>
+        <v>1.381</v>
       </c>
       <c r="D117" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2495,13 +2495,13 @@
         <v>116</v>
       </c>
       <c r="B118" s="1">
-        <v>606.32000000000005</v>
+        <v>606.31666666666672</v>
       </c>
       <c r="C118" s="1">
-        <v>60.631999999999998</v>
+        <v>72.757999999999996</v>
       </c>
       <c r="D118" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2509,13 +2509,13 @@
         <v>117</v>
       </c>
       <c r="B119" s="1">
-        <v>620.87</v>
+        <v>620.86666666666679</v>
       </c>
       <c r="C119" s="1">
-        <v>62.087000000000003</v>
+        <v>74.504000000000005</v>
       </c>
       <c r="D119" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2523,13 +2523,13 @@
         <v>118</v>
       </c>
       <c r="B120" s="1">
-        <v>17.79</v>
+        <v>17.783333333333335</v>
       </c>
       <c r="C120" s="1">
-        <v>1.7789999999999999</v>
+        <v>2.1339999999999999</v>
       </c>
       <c r="D120" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -2537,13 +2537,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="1">
-        <v>11.15</v>
+        <v>11.158333333333333</v>
       </c>
       <c r="C121" s="1">
-        <v>1.115</v>
+        <v>1.339</v>
       </c>
       <c r="D121" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -2551,13 +2551,13 @@
         <v>120</v>
       </c>
       <c r="B122" s="1">
-        <v>6.57</v>
+        <v>6.5833333333333339</v>
       </c>
       <c r="C122" s="1">
-        <v>0.65700000000000003</v>
+        <v>0.79</v>
       </c>
       <c r="D122" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -2565,13 +2565,13 @@
         <v>121</v>
       </c>
       <c r="B123" s="1">
-        <v>611.92999999999995</v>
+        <v>611.92499999999995</v>
       </c>
       <c r="C123" s="1">
-        <v>61.192999999999998</v>
+        <v>73.430999999999997</v>
       </c>
       <c r="D123" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -2579,13 +2579,13 @@
         <v>122</v>
       </c>
       <c r="B124" s="1">
-        <v>533.58000000000004</v>
+        <v>533.58333333333337</v>
       </c>
       <c r="C124" s="1">
-        <v>53.357999999999997</v>
+        <v>64.03</v>
       </c>
       <c r="D124" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -2593,13 +2593,13 @@
         <v>123</v>
       </c>
       <c r="B125" s="1">
-        <v>1798.51</v>
+        <v>1798.5166666666667</v>
       </c>
       <c r="C125" s="1">
-        <v>179.851</v>
+        <v>215.822</v>
       </c>
       <c r="D125" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -2607,13 +2607,13 @@
         <v>124</v>
       </c>
       <c r="B126" s="1">
-        <v>738.13</v>
+        <v>738.13333333333333</v>
       </c>
       <c r="C126" s="1">
-        <v>73.813000000000002</v>
+        <v>88.575999999999993</v>
       </c>
       <c r="D126" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -2621,13 +2621,13 @@
         <v>125</v>
       </c>
       <c r="B127" s="1">
-        <v>1572.56</v>
+        <v>1572.5583333333334</v>
       </c>
       <c r="C127" s="1">
-        <v>157.256</v>
+        <v>188.70699999999999</v>
       </c>
       <c r="D127" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -2635,13 +2635,13 @@
         <v>126</v>
       </c>
       <c r="B128" s="1">
-        <v>7185.83</v>
+        <v>7185.8250000000007</v>
       </c>
       <c r="C128" s="1">
-        <v>718.58299999999997</v>
+        <v>862.29899999999998</v>
       </c>
       <c r="D128" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -2649,13 +2649,13 @@
         <v>127</v>
       </c>
       <c r="B129" s="1">
-        <v>3670.38</v>
+        <v>3670.3750000000005</v>
       </c>
       <c r="C129" s="1">
-        <v>367.03800000000001</v>
+        <v>440.44499999999999</v>
       </c>
       <c r="D129" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -2663,13 +2663,13 @@
         <v>128</v>
       </c>
       <c r="B130" s="1">
-        <v>18078.8</v>
+        <v>18078.791666666668</v>
       </c>
       <c r="C130" s="1">
-        <v>1807.88</v>
+        <v>2169.4549999999999</v>
       </c>
       <c r="D130" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -2677,13 +2677,13 @@
         <v>129</v>
       </c>
       <c r="B131" s="1">
-        <v>432.06</v>
+        <v>432.05833333333339</v>
       </c>
       <c r="C131" s="1">
-        <v>43.206000000000003</v>
+        <v>51.847000000000001</v>
       </c>
       <c r="D131" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -2691,13 +2691,13 @@
         <v>130</v>
       </c>
       <c r="B132" s="1">
-        <v>2929.19</v>
+        <v>2929.2</v>
       </c>
       <c r="C132" s="1">
-        <v>292.91899999999998</v>
+        <v>351.50400000000002</v>
       </c>
       <c r="D132" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -2705,13 +2705,13 @@
         <v>131</v>
       </c>
       <c r="B133" s="1">
-        <v>675.65</v>
+        <v>675.65833333333342</v>
       </c>
       <c r="C133" s="1">
-        <v>67.564999999999998</v>
+        <v>81.078999999999994</v>
       </c>
       <c r="D133" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -2719,13 +2719,13 @@
         <v>132</v>
       </c>
       <c r="B134" s="1">
-        <v>3150.99</v>
+        <v>3150.9833333333336</v>
       </c>
       <c r="C134" s="1">
-        <v>315.09899999999999</v>
+        <v>378.11799999999999</v>
       </c>
       <c r="D134" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -2733,13 +2733,13 @@
         <v>133</v>
       </c>
       <c r="B135" s="1">
-        <v>3004.91</v>
+        <v>3004.9</v>
       </c>
       <c r="C135" s="1">
-        <v>300.49099999999999</v>
+        <v>360.58800000000002</v>
       </c>
       <c r="D135" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -2750,10 +2750,10 @@
         <v>2490.75</v>
       </c>
       <c r="C136" s="1">
-        <v>249.07499999999999</v>
+        <v>298.89</v>
       </c>
       <c r="D136" s="1">
-        <v>10</v>
+        <v>8.3333333333333339</v>
       </c>
     </row>
   </sheetData>
